--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,7 +240,74 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BEDMPPModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BEDMPPModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BEDMPPModel.identifier</t>
@@ -257,9 +324,6 @@
   </si>
   <si>
     <t>BEDMPPModel.ingredient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -635,7 +699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -646,7 +710,7 @@
   <cols>
     <col min="1" max="1" width="38.36328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -671,7 +735,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.36328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -883,18 +947,18 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -905,7 +969,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -917,13 +981,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -974,13 +1038,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -989,20 +1053,20 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>74</v>
@@ -1017,15 +1081,17 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>72</v>
@@ -1062,22 +1128,22 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1086,15 +1152,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1102,10 +1168,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1117,13 +1183,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1174,13 +1240,13 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1194,7 +1260,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1202,10 +1268,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1217,13 +1283,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1274,13 +1340,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1294,7 +1360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1302,10 +1368,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1317,13 +1383,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1374,13 +1440,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1394,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1402,10 +1468,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1417,13 +1483,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1474,13 +1540,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1494,7 +1560,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1502,10 +1568,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1517,13 +1583,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1574,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1594,7 +1660,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1602,10 +1668,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1617,13 +1683,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1674,13 +1740,13 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1694,7 +1760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1702,10 +1768,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1717,13 +1783,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1774,13 +1840,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1794,7 +1860,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1802,10 +1868,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -1817,13 +1883,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1874,21 +1940,221 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-20T14:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEDMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEDMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEDMPPModel</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEDMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-06-28T12:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -709,41 +709,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEDMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEDMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T20:35:38+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEDMPPModel</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEDMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEDMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEDMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:31:26+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -950,15 +946,15 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -969,25 +965,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1038,13 +1034,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1053,16 +1049,16 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1081,16 +1077,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1128,19 +1124,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1152,15 +1148,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1183,13 +1179,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1240,7 +1236,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1260,7 +1256,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1268,7 +1264,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>74</v>
@@ -1283,13 +1279,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1340,10 +1336,10 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1360,7 +1356,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1368,10 +1364,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1383,13 +1379,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1440,13 +1436,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1460,7 +1456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1468,10 +1464,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1483,13 +1479,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1540,13 +1536,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1560,7 +1556,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1568,10 +1564,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1583,13 +1579,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1640,13 +1636,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1660,7 +1656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1668,7 +1664,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>74</v>
@@ -1683,13 +1679,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1740,10 +1736,10 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1760,7 +1756,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1768,10 +1764,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1783,13 +1779,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1840,13 +1836,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1860,7 +1856,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1868,10 +1864,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -1883,13 +1879,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1940,13 +1936,13 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -1960,7 +1956,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1971,7 +1967,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -1983,13 +1979,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2040,13 +2036,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2060,7 +2056,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2071,7 +2067,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2083,13 +2079,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2140,13 +2136,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEDMPPModel.xlsx
+++ b/StructureDefinition-BEDMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
